--- a/rapido2-month-123731.xlsx
+++ b/rapido2-month-123731.xlsx
@@ -11,6 +11,71 @@
   </sheets>
   <calcPr calcId="124519" refMode="R1C1"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Col3</t>
+  </si>
+  <si>
+    <t>Col4</t>
+  </si>
+  <si>
+    <t>Col5</t>
+  </si>
+  <si>
+    <t>Col6</t>
+  </si>
+  <si>
+    <t>Col7</t>
+  </si>
+  <si>
+    <t>Col8</t>
+  </si>
+  <si>
+    <t>Col9</t>
+  </si>
+  <si>
+    <t>Col10</t>
+  </si>
+  <si>
+    <t>Col11</t>
+  </si>
+  <si>
+    <t>Col12</t>
+  </si>
+  <si>
+    <t>Col13</t>
+  </si>
+  <si>
+    <t>Col14</t>
+  </si>
+  <si>
+    <t>Col15</t>
+  </si>
+  <si>
+    <t>Col16</t>
+  </si>
+  <si>
+    <t>Col17</t>
+  </si>
+  <si>
+    <t>Col18</t>
+  </si>
+  <si>
+    <t>Col19</t>
+  </si>
+  <si>
+    <t>Col20</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -346,44 +411,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I633"/>
+  <dimension ref="A1:T633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="U1" sqref="U1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1">
-        <v>1</v>
-      </c>
-      <c r="B1">
-        <v>2</v>
-      </c>
-      <c r="C1">
-        <v>3</v>
-      </c>
-      <c r="D1">
-        <v>4</v>
-      </c>
-      <c r="E1">
-        <v>5</v>
-      </c>
-      <c r="F1">
-        <v>6</v>
-      </c>
-      <c r="G1">
-        <v>7</v>
-      </c>
-      <c r="H1">
-        <v>8</v>
-      </c>
-      <c r="I1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:20">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2">
         <v>19</v>
       </c>
@@ -412,7 +510,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:20">
       <c r="A3">
         <v>5</v>
       </c>
@@ -441,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:20">
       <c r="A4">
         <v>8</v>
       </c>
@@ -470,7 +568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:20">
       <c r="A5">
         <v>4</v>
       </c>
@@ -499,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:20">
       <c r="A6">
         <v>10</v>
       </c>
@@ -528,7 +626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:20">
       <c r="A7">
         <v>7</v>
       </c>
@@ -557,7 +655,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:20">
       <c r="A8">
         <v>14</v>
       </c>
@@ -586,7 +684,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:20">
       <c r="A9">
         <v>11</v>
       </c>
@@ -615,7 +713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:20">
       <c r="A10">
         <v>3</v>
       </c>
@@ -644,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:20">
       <c r="A11">
         <v>14</v>
       </c>
@@ -673,7 +771,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:20">
       <c r="A12">
         <v>20</v>
       </c>
@@ -702,7 +800,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:20">
       <c r="A13">
         <v>6</v>
       </c>
@@ -731,7 +829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:20">
       <c r="A14">
         <v>9</v>
       </c>
@@ -760,7 +858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:20">
       <c r="A15">
         <v>6</v>
       </c>
@@ -789,7 +887,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:20">
       <c r="A16">
         <v>5</v>
       </c>
@@ -18717,52 +18815,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101009186DC3954CD5F4D81BEF5520CD67B8A" ma:contentTypeVersion="4" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="4ceb80f51419c4e27a8cf1c29ce90395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d8dac52-bdb7-4240-b34e-01b37c3e077b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04ee18f1486f7d5b1b7b956e6d497fc3" ns2:_="">
     <xsd:import namespace="4d8dac52-bdb7-4240-b34e-01b37c3e077b"/>
@@ -18907,34 +18978,77 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=14.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BE870FD-250D-4987-8DFF-C6C7A166D2AF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEC0757-2B59-4F6F-8A3A-E3C51DFC7E4B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288D9E89-98C1-49BB-BD1F-158FB046CA06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3F7ADCB-93A8-48F9-81F5-66F76B677459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EA77F8-A42C-4482-A08F-33E9990398F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -18952,26 +19066,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3F7ADCB-93A8-48F9-81F5-66F76B677459}">
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BE870FD-250D-4987-8DFF-C6C7A166D2AF}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288D9E89-98C1-49BB-BD1F-158FB046CA06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEC0757-2B59-4F6F-8A3A-E3C51DFC7E4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/events"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/rapido2-month-123731.xlsx
+++ b/rapido2-month-123731.xlsx
@@ -14,66 +14,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
-    <t>Col1</t>
+    <t>col1</t>
   </si>
   <si>
-    <t>Col2</t>
+    <t>col2</t>
   </si>
   <si>
-    <t>Col3</t>
+    <t>coll3</t>
   </si>
   <si>
-    <t>Col4</t>
+    <t>coll4</t>
   </si>
   <si>
-    <t>Col5</t>
+    <t>col5</t>
   </si>
   <si>
-    <t>Col6</t>
+    <t>col6</t>
   </si>
   <si>
-    <t>Col7</t>
+    <t>col7</t>
   </si>
   <si>
-    <t>Col8</t>
+    <t>col8</t>
   </si>
   <si>
-    <t>Col9</t>
+    <t>col9</t>
   </si>
   <si>
-    <t>Col10</t>
+    <t>col10</t>
   </si>
   <si>
-    <t>Col11</t>
+    <t>col11</t>
   </si>
   <si>
-    <t>Col12</t>
+    <t>col12</t>
   </si>
   <si>
-    <t>Col13</t>
+    <t>col13</t>
   </si>
   <si>
-    <t>Col14</t>
+    <t>col14</t>
   </si>
   <si>
-    <t>Col15</t>
+    <t>col15</t>
   </si>
   <si>
-    <t>Col16</t>
+    <t>col16</t>
   </si>
   <si>
-    <t>Col17</t>
+    <t>col17</t>
   </si>
   <si>
-    <t>Col18</t>
+    <t>col18</t>
   </si>
   <si>
-    <t>Col19</t>
-  </si>
-  <si>
-    <t>Col20</t>
+    <t>col20</t>
   </si>
 </sst>
 </file>
@@ -413,8 +410,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -475,10 +472,10 @@
         <v>17</v>
       </c>
       <c r="S1" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="T1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -18815,25 +18812,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101009186DC3954CD5F4D81BEF5520CD67B8A" ma:contentTypeVersion="4" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="4ceb80f51419c4e27a8cf1c29ce90395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d8dac52-bdb7-4240-b34e-01b37c3e077b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04ee18f1486f7d5b1b7b956e6d497fc3" ns2:_="">
     <xsd:import namespace="4d8dac52-bdb7-4240-b34e-01b37c3e077b"/>
@@ -18978,6 +18956,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -19025,30 +19022,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEC0757-2B59-4F6F-8A3A-E3C51DFC7E4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288D9E89-98C1-49BB-BD1F-158FB046CA06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3F7ADCB-93A8-48F9-81F5-66F76B677459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EA77F8-A42C-4482-A08F-33E9990398F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19066,6 +19039,30 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3F7ADCB-93A8-48F9-81F5-66F76B677459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288D9E89-98C1-49BB-BD1F-158FB046CA06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEC0757-2B59-4F6F-8A3A-E3C51DFC7E4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BE870FD-250D-4987-8DFF-C6C7A166D2AF}">
   <ds:schemaRefs>

--- a/rapido2-month-123731.xlsx
+++ b/rapido2-month-123731.xlsx
@@ -20,12 +20,6 @@
   </si>
   <si>
     <t>col2</t>
-  </si>
-  <si>
-    <t>coll3</t>
-  </si>
-  <si>
-    <t>coll4</t>
   </si>
   <si>
     <t>col5</t>
@@ -71,6 +65,12 @@
   </si>
   <si>
     <t>col20</t>
+  </si>
+  <si>
+    <t>col3</t>
+  </si>
+  <si>
+    <t>col4</t>
   </si>
 </sst>
 </file>
@@ -424,58 +424,58 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="L1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Q1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="R1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="S1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:20">
@@ -18812,6 +18812,25 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x0101009186DC3954CD5F4D81BEF5520CD67B8A" ma:contentTypeVersion="4" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="4ceb80f51419c4e27a8cf1c29ce90395">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4d8dac52-bdb7-4240-b34e-01b37c3e077b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04ee18f1486f7d5b1b7b956e6d497fc3" ns2:_="">
     <xsd:import namespace="4d8dac52-bdb7-4240-b34e-01b37c3e077b"/>
@@ -18956,25 +18975,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
@@ -19022,6 +19022,30 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEC0757-2B59-4F6F-8A3A-E3C51DFC7E4B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288D9E89-98C1-49BB-BD1F-158FB046CA06}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3F7ADCB-93A8-48F9-81F5-66F76B677459}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30EA77F8-A42C-4482-A08F-33E9990398F8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -19039,30 +19063,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3F7ADCB-93A8-48F9-81F5-66F76B677459}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{288D9E89-98C1-49BB-BD1F-158FB046CA06}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2FEC0757-2B59-4F6F-8A3A-E3C51DFC7E4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BE870FD-250D-4987-8DFF-C6C7A166D2AF}">
   <ds:schemaRefs>
